--- a/assets/RTLDirect-GrilleProgramme2017.xlsx
+++ b/assets/RTLDirect-GrilleProgramme2017.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">19h15 à 20h</t>
   </si>
   <si>
-    <t xml:space="preserve">La curiosité est vilan défaut</t>
+    <t xml:space="preserve">La curiosité est vilain défaut</t>
   </si>
   <si>
     <t xml:space="preserve">20h à 22h</t>
@@ -515,518 +515,518 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C2:J37"/>
+  <dimension ref="B2:I37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:G37"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="0" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="0" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="0" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="0" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="0" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="0" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="0" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="0" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="0" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="0" t="s">
+      <c r="F16" s="7"/>
+      <c r="G16" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="0" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="0" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="0" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="0" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="0" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="0" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="0" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="0" t="s">
+      <c r="G22" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>63</v>
       </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="0" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="0" t="s">
+      <c r="F28" s="7"/>
+      <c r="G28" s="0" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="0" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="0" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>73</v>
       </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="0" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="0" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="G32" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>82</v>
       </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="G34" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="G35" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>91</v>
       </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="G37" s="0" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="Ecouter RTL Direct sur franceradios.org"/>
+    <hyperlink ref="B3" r:id="rId1" display="Ecouter RTL Direct sur franceradios.org"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/assets/RTLDirect-GrilleProgramme2017.xlsx
+++ b/assets/RTLDirect-GrilleProgramme2017.xlsx
@@ -154,13 +154,13 @@
     <t xml:space="preserve">Christophe Pacaud &amp; Agnès Bonfillon</t>
   </si>
   <si>
-    <t xml:space="preserve">La collection Géroges Lang</t>
+    <t xml:space="preserve">La collection Georges Lang</t>
   </si>
   <si>
     <t xml:space="preserve">23h à 00h</t>
   </si>
   <si>
-    <t xml:space="preserve">Grorges Lang</t>
+    <t xml:space="preserve">Georges Lang</t>
   </si>
   <si>
     <t xml:space="preserve">Les nocturnes</t>
@@ -517,8 +517,8 @@
   </sheetPr>
   <dimension ref="B2:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
